--- a/dell/offline/C1WR2S2_hwinvent_report_hw_passed.xml_report.xlsx
+++ b/dell/offline/C1WR2S2_hwinvent_report_hw_passed.xml_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
   <si>
     <t>ServiceTag</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>PSU fw</t>
+  </si>
+  <si>
+    <t>NIC status</t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,9 +513,10 @@
     <col min="15" max="15" width="14.7109375" customWidth="1"/>
     <col min="16" max="16" width="9.7109375" customWidth="1"/>
     <col min="17" max="17" width="6.7109375" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,8 +568,11 @@
       <c r="Q1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -617,8 +624,11 @@
       <c r="Q2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
@@ -658,8 +668,11 @@
       <c r="Q3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
@@ -684,8 +697,11 @@
       <c r="M4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
@@ -710,8 +726,11 @@
       <c r="M5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
@@ -737,7 +756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
@@ -763,7 +782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
@@ -789,7 +808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
@@ -815,37 +834,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="E13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="E15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="E16" s="3" t="s">
         <v>7</v>
       </c>

--- a/dell/offline/C1WR2S2_hwinvent_report_hw_passed.xml_report.xlsx
+++ b/dell/offline/C1WR2S2_hwinvent_report_hw_passed.xml_report.xlsx
@@ -31,7 +31,7 @@
     <t>Inventory date</t>
   </si>
   <si>
-    <t>20190101170615.000000+000</t>
+    <t>20190115192308.000000+000</t>
   </si>
   <si>
     <t>CPU model</t>
